--- a/fhir/core/StructureDefinition-dk-core-person-servicerequest.xlsx
+++ b/fhir/core/StructureDefinition-dk-core-person-servicerequest.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.4.0</t>
+    <t>3.5.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-01T19:23:09+01:00</t>
+    <t>2025-12-19T17:27:08+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -69,7 +69,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>HL7 Denmark (http://www.hl7.dk, jenskristianvilladsen@gmail.com)</t>
+    <t>HL7 Denmark (http://www.hl7.dk, dk-affiliate@hl7.dk)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -371,7 +371,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -506,7 +506,7 @@
     <t>ServiceRequest.instantiatesCanonical</t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(ActivityDefinition|PlanDefinition)
+    <t xml:space="preserve">canonical(ActivityDefinition|4.0.1|PlanDefinition|4.0.1)
 </t>
   </si>
   <si>
@@ -550,7 +550,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(CarePlan|ServiceRequest|MedicationRequest)
+    <t xml:space="preserve">Reference(CarePlan|4.0.1|ServiceRequest|4.0.1|MedicationRequest|4.0.1)
 </t>
   </si>
   <si>
@@ -576,7 +576,7 @@
 priorrenewed order</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(ServiceRequest)
+    <t xml:space="preserve">Reference(ServiceRequest|4.0.1)
 </t>
   </si>
   <si>
@@ -788,10 +788,10 @@
     <t>Many laboratory and radiology procedure codes embed the specimen/organ system in the test order name, for example,  serum or serum/plasma glucose, or a chest x-ray. The specimen might not be recorded separately from the test code.</t>
   </si>
   <si>
-    <t>Codes for tests or services that can be carried out by a designated individual, organization or healthcare service.  For laboratory, LOINC is  (preferred)[http://build.fhir.org/terminologies.html#preferred] and a valueset using LOINC Order codes is available [here](http://hl7.org/fhir/R4/valueset-diagnostic-requests.html).</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/procedure-code</t>
+    <t>Codes for tests or services that can be carried out by a designated individual, organization or healthcare service.  For laboratory, LOINC is  (preferred)[http://build.fhir.org/terminologies.html#preferred].</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/procedure-code|4.0.1</t>
   </si>
   <si>
     <t>Request.code</t>
@@ -828,7 +828,7 @@
     <t>Codified order entry details which are based on order context.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/servicerequest-orderdetail</t>
+    <t>http://hl7.org/fhir/ValueSet/servicerequest-orderdetail|4.0.1</t>
   </si>
   <si>
     <t xml:space="preserve">prr-1
@@ -892,7 +892,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter)
+    <t xml:space="preserve">Reference(Encounter|4.0.1)
 </t>
   </si>
   <si>
@@ -965,7 +965,7 @@
     <t>A coded concept identifying the pre-condition that should hold prior to performing a procedure.  For example "pain", "on flare-up", etc.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/medication-as-needed-reason</t>
+    <t>http://hl7.org/fhir/ValueSet/medication-as-needed-reason|4.0.1</t>
   </si>
   <si>
     <t>boolean: precondition.negationInd (inversed - so negationInd = true means asNeeded=false CodeableConcept: precondition.observationEventCriterion[code="Assertion"].value</t>
@@ -1060,7 +1060,7 @@
     <t>Indicates specific responsibility of an individual within the care team, such as "Primary physician", "Team coordinator", "Caregiver", etc.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/participant-role</t>
+    <t>http://hl7.org/fhir/ValueSet/participant-role|4.0.1</t>
   </si>
   <si>
     <t>Request.performerType</t>
@@ -1125,7 +1125,7 @@
     <t>ServiceRequest.locationReference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Location)
+    <t xml:space="preserve">Reference(Location|4.0.1)
 </t>
   </si>
   <si>
@@ -1150,7 +1150,7 @@
     <t>Diagnosis or problem codes justifying the reason for requesting the service investigation.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/procedure-reason</t>
+    <t>http://hl7.org/fhir/ValueSet/procedure-reason|4.0.1</t>
   </si>
   <si>
     <t>Request.reasonCode</t>
@@ -1572,7 +1572,7 @@
     <t>ServiceRequest.insurance</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Coverage|ClaimResponse)
+    <t xml:space="preserve">Reference(Coverage|4.0.1|ClaimResponse|4.0.1)
 </t>
   </si>
   <si>
@@ -1598,7 +1598,7 @@
 AOE</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Resource)
+    <t xml:space="preserve">Reference(Resource|4.0.1)
 </t>
   </si>
   <si>
@@ -1623,7 +1623,7 @@
     <t>ServiceRequest.specimen</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Specimen)
+    <t xml:space="preserve">Reference(Specimen|4.0.1)
 </t>
   </si>
   <si>
@@ -1664,7 +1664,7 @@
     <t>Codes describing anatomical locations. May include laterality.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/body-site</t>
+    <t>http://hl7.org/fhir/ValueSet/body-site|4.0.1</t>
   </si>
   <si>
     <t>targetSiteCode</t>
@@ -1707,7 +1707,7 @@
     <t>ServiceRequest.relevantHistory</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Provenance)
+    <t xml:space="preserve">Reference(Provenance|4.0.1)
 </t>
   </si>
   <si>
@@ -2039,15 +2039,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="61.28515625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="43.8828125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="17.86328125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="42.28125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="52.86328125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="37.85546875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="15.41015625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="36.47265625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.30078125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="3.953125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.265625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.6875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="10.51171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2058,27 +2058,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.04296875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="66.6171875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="85.875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="33.9375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="7.80078125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="13.609375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="13.91796875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="15.01171875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="156.53515625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="57.46484375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.98046875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="74.078125" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.54296875" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="11.3203125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="29.27734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="8.22265625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="8.53125" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="27.73828125" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="84.56640625" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="157.5625" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="33.05078125" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="61.046875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="23.9296875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="72.94921875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="135.91796875" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="28.5078125" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="52.66015625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
